--- a/Code/Results/Cases/Case_4_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.40513003856045</v>
+        <v>14.66779673140667</v>
       </c>
       <c r="C2">
-        <v>7.313510023732187</v>
+        <v>9.683012303539137</v>
       </c>
       <c r="D2">
-        <v>9.415293073360486</v>
+        <v>14.12482764326565</v>
       </c>
       <c r="E2">
-        <v>8.932244724930092</v>
+        <v>14.96331208326708</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29.25634690800546</v>
+        <v>42.97036403438559</v>
       </c>
       <c r="H2">
-        <v>10.89522113188195</v>
+        <v>17.98307346718465</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.341099337525639</v>
+        <v>8.978851923871614</v>
       </c>
       <c r="K2">
-        <v>10.27216353218151</v>
+        <v>10.52403804654302</v>
       </c>
       <c r="L2">
-        <v>6.992063216929574</v>
+        <v>11.75773452428673</v>
       </c>
       <c r="M2">
-        <v>10.50319578528833</v>
+        <v>16.3195047908041</v>
       </c>
       <c r="N2">
-        <v>14.13500204254287</v>
+        <v>21.85342209167314</v>
       </c>
       <c r="O2">
-        <v>18.43676504470292</v>
+        <v>29.23482447139614</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.64524896371933</v>
+        <v>14.50943044968309</v>
       </c>
       <c r="C3">
-        <v>7.29927695249654</v>
+        <v>9.680791312146726</v>
       </c>
       <c r="D3">
-        <v>9.236338585264411</v>
+        <v>14.1277388665587</v>
       </c>
       <c r="E3">
-        <v>8.938574481843663</v>
+        <v>14.99185532894032</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.10512368208643</v>
+        <v>43.07098362960609</v>
       </c>
       <c r="H3">
-        <v>10.95577788921796</v>
+        <v>18.02914779633803</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.361146355339307</v>
+        <v>8.986292062133568</v>
       </c>
       <c r="K3">
-        <v>9.650999769202738</v>
+        <v>10.40321605761696</v>
       </c>
       <c r="L3">
-        <v>6.925332439122974</v>
+        <v>11.76785129926367</v>
       </c>
       <c r="M3">
-        <v>10.2248362185361</v>
+        <v>16.30277518744363</v>
       </c>
       <c r="N3">
-        <v>14.32812794708348</v>
+        <v>21.91238315001919</v>
       </c>
       <c r="O3">
-        <v>18.4768494175562</v>
+        <v>29.31224649744936</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.15870705997964</v>
+        <v>14.41392994885017</v>
       </c>
       <c r="C4">
-        <v>7.291151676688316</v>
+        <v>9.679666462962013</v>
       </c>
       <c r="D4">
-        <v>9.129549455141198</v>
+        <v>14.13185802867452</v>
       </c>
       <c r="E4">
-        <v>8.945947483163124</v>
+        <v>15.01103918380295</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29.0347157343253</v>
+        <v>43.14166748079858</v>
       </c>
       <c r="H4">
-        <v>10.99800241601913</v>
+        <v>18.05967607799375</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.373882667289777</v>
+        <v>8.991104679527353</v>
       </c>
       <c r="K4">
-        <v>9.248480935434422</v>
+        <v>10.32995529304104</v>
       </c>
       <c r="L4">
-        <v>6.886502537126103</v>
+        <v>11.7753429235318</v>
       </c>
       <c r="M4">
-        <v>10.05374435254739</v>
+        <v>16.29458286514575</v>
       </c>
       <c r="N4">
-        <v>14.44955096508328</v>
+        <v>21.95029998693401</v>
       </c>
       <c r="O4">
-        <v>18.51255605077512</v>
+        <v>29.36434284883751</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.95559571408924</v>
+        <v>14.37549084897221</v>
       </c>
       <c r="C5">
-        <v>7.28799382233167</v>
+        <v>9.679268527821385</v>
       </c>
       <c r="D5">
-        <v>9.086853069912301</v>
+        <v>14.13412418352994</v>
       </c>
       <c r="E5">
-        <v>8.949813881564205</v>
+        <v>15.01927426599301</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29.01151890516752</v>
+        <v>43.17270704389361</v>
       </c>
       <c r="H5">
-        <v>11.01644481209551</v>
+        <v>18.07267994382182</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.379181527847018</v>
+        <v>8.993127476250594</v>
       </c>
       <c r="K5">
-        <v>9.079162049674999</v>
+        <v>10.3003648499886</v>
       </c>
       <c r="L5">
-        <v>6.871224467008992</v>
+        <v>11.77871833338595</v>
       </c>
       <c r="M5">
-        <v>9.984074588147426</v>
+        <v>16.29177072522101</v>
       </c>
       <c r="N5">
-        <v>14.49976489299791</v>
+        <v>21.9661837677646</v>
       </c>
       <c r="O5">
-        <v>18.52981139515293</v>
+        <v>29.38671866934603</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.92158285970521</v>
+        <v>14.36913813500818</v>
       </c>
       <c r="C6">
-        <v>7.287478688189656</v>
+        <v>9.679206113377894</v>
       </c>
       <c r="D6">
-        <v>9.079814213587934</v>
+        <v>14.13453599651881</v>
       </c>
       <c r="E6">
-        <v>8.950507510226938</v>
+        <v>15.0206669270979</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29.00799444400545</v>
+        <v>43.17799604056832</v>
       </c>
       <c r="H6">
-        <v>11.01958085927782</v>
+        <v>18.07487326403544</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.380068001295727</v>
+        <v>8.993467086692174</v>
       </c>
       <c r="K6">
-        <v>9.050728187112481</v>
+        <v>10.29546823023394</v>
       </c>
       <c r="L6">
-        <v>6.868720669854852</v>
+        <v>11.7792983155512</v>
       </c>
       <c r="M6">
-        <v>9.9725119828825</v>
+        <v>16.29133565134137</v>
       </c>
       <c r="N6">
-        <v>14.50814767124153</v>
+        <v>21.96884740740842</v>
       </c>
       <c r="O6">
-        <v>18.53283750685823</v>
+        <v>29.39050337317294</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.15598716549855</v>
+        <v>14.41340955578862</v>
       </c>
       <c r="C7">
-        <v>7.291108469633416</v>
+        <v>9.679660850993743</v>
       </c>
       <c r="D7">
-        <v>9.12897025524158</v>
+        <v>14.13188621031135</v>
       </c>
       <c r="E7">
-        <v>8.945996156912875</v>
+        <v>15.01114855382151</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29.03438084807722</v>
+        <v>43.14207704526698</v>
       </c>
       <c r="H7">
-        <v>10.99824617576342</v>
+        <v>18.0598491711066</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.37395368778343</v>
+        <v>8.991131709957568</v>
       </c>
       <c r="K7">
-        <v>9.24621882038416</v>
+        <v>10.32955511615294</v>
       </c>
       <c r="L7">
-        <v>6.886294275363329</v>
+        <v>11.77538713878272</v>
       </c>
       <c r="M7">
-        <v>10.05280442275924</v>
+        <v>16.29454280445518</v>
       </c>
       <c r="N7">
-        <v>14.45022517596381</v>
+        <v>21.9505124489022</v>
       </c>
       <c r="O7">
-        <v>18.51277792354111</v>
+        <v>29.36463997667582</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.14736487481491</v>
+        <v>14.61285655387475</v>
       </c>
       <c r="C8">
-        <v>7.308474361582652</v>
+        <v>9.682197165925615</v>
       </c>
       <c r="D8">
-        <v>9.352975222173745</v>
+        <v>14.12534830540279</v>
       </c>
       <c r="E8">
-        <v>8.933694684780351</v>
+        <v>14.97280996581637</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29.1994604817705</v>
+        <v>43.00320790206224</v>
       </c>
       <c r="H8">
-        <v>10.91503466083751</v>
+        <v>17.99849558493802</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.347923612777742</v>
+        <v>8.98136667533204</v>
       </c>
       <c r="K8">
-        <v>10.06238000119896</v>
+        <v>10.4822057470001</v>
       </c>
       <c r="L8">
-        <v>6.968613847480705</v>
+        <v>11.76095756343755</v>
       </c>
       <c r="M8">
-        <v>10.40731079537222</v>
+        <v>16.31330684556769</v>
       </c>
       <c r="N8">
-        <v>14.20101299677526</v>
+        <v>21.8733967650036</v>
       </c>
       <c r="O8">
-        <v>18.4482319181779</v>
+        <v>29.26057325087055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.92686482303377</v>
+        <v>15.01590502864239</v>
       </c>
       <c r="C9">
-        <v>7.347455196382538</v>
+        <v>9.689049398043098</v>
       </c>
       <c r="D9">
-        <v>9.814775719262229</v>
+        <v>14.13096597176584</v>
       </c>
       <c r="E9">
-        <v>8.937898018722587</v>
+        <v>14.91076102295184</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.70740118745705</v>
+        <v>42.80166733947677</v>
       </c>
       <c r="H9">
-        <v>10.79338474968045</v>
+        <v>17.89592176331612</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.300210993615795</v>
+        <v>8.964148249057619</v>
       </c>
       <c r="K9">
-        <v>11.49483302953648</v>
+        <v>10.78749186121161</v>
       </c>
       <c r="L9">
-        <v>7.146722137510336</v>
+        <v>11.7427861331122</v>
       </c>
       <c r="M9">
-        <v>11.0970955339402</v>
+        <v>16.36644990182662</v>
       </c>
       <c r="N9">
-        <v>13.73399935647161</v>
+        <v>21.73571968405714</v>
       </c>
       <c r="O9">
-        <v>18.41353991944373</v>
+        <v>29.09268162676157</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.1278401149977</v>
+        <v>15.31679566280859</v>
       </c>
       <c r="C10">
-        <v>7.379183861022208</v>
+        <v>9.695207303832913</v>
       </c>
       <c r="D10">
-        <v>10.1651335151544</v>
+        <v>14.14623947589328</v>
       </c>
       <c r="E10">
-        <v>8.959159301548992</v>
+        <v>14.8731470488459</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.20052846709483</v>
+        <v>42.69691782277057</v>
       </c>
       <c r="H10">
-        <v>10.73151292012615</v>
+        <v>17.83134729911799</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.26710304620342</v>
+        <v>8.952663735670008</v>
       </c>
       <c r="K10">
-        <v>12.44482635771018</v>
+        <v>11.0135301357407</v>
       </c>
       <c r="L10">
-        <v>7.287272554982714</v>
+        <v>11.73556608594311</v>
       </c>
       <c r="M10">
-        <v>11.5956541128258</v>
+        <v>16.41523982077928</v>
       </c>
       <c r="N10">
-        <v>13.40283335853981</v>
+        <v>21.64274505530965</v>
       </c>
       <c r="O10">
-        <v>18.44938339494761</v>
+        <v>28.99140197263325</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.65029218161329</v>
+        <v>15.4541816115782</v>
       </c>
       <c r="C11">
-        <v>7.394309772766952</v>
+        <v>9.698248043417074</v>
       </c>
       <c r="D11">
-        <v>10.32637800643756</v>
+        <v>14.15558345530751</v>
       </c>
       <c r="E11">
-        <v>8.972969775789167</v>
+        <v>14.85775965538407</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.45231662012345</v>
+        <v>42.65870006441166</v>
       </c>
       <c r="H11">
-        <v>10.70984144627589</v>
+        <v>17.80430687443631</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.252444809893912</v>
+        <v>8.947689911683828</v>
       </c>
       <c r="K11">
-        <v>12.85489669731713</v>
+        <v>11.11634453853105</v>
       </c>
       <c r="L11">
-        <v>7.353207054137314</v>
+        <v>11.73360295338213</v>
       </c>
       <c r="M11">
-        <v>11.81976056577776</v>
+        <v>16.43950009498653</v>
       </c>
       <c r="N11">
-        <v>13.25447538820022</v>
+        <v>21.60220657346471</v>
       </c>
       <c r="O11">
-        <v>18.48015544223427</v>
+        <v>28.95012141214289</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.84465583214886</v>
+        <v>15.50623515102351</v>
       </c>
       <c r="C12">
-        <v>7.400138925864005</v>
+        <v>9.699433516425589</v>
       </c>
       <c r="D12">
-        <v>10.38766191689414</v>
+        <v>14.15946381966968</v>
       </c>
       <c r="E12">
-        <v>8.978810082656178</v>
+        <v>14.85218007288597</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.55171050261849</v>
+        <v>42.64558602998106</v>
       </c>
       <c r="H12">
-        <v>10.70260987442318</v>
+        <v>17.79440266379422</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.246950428364177</v>
+        <v>8.945842302615088</v>
       </c>
       <c r="K12">
-        <v>13.00702028389653</v>
+        <v>11.15524352909837</v>
       </c>
       <c r="L12">
-        <v>7.378452119553177</v>
+        <v>11.73304865881345</v>
       </c>
       <c r="M12">
-        <v>11.90416999380873</v>
+        <v>16.44897903131304</v>
       </c>
       <c r="N12">
-        <v>13.19859999806845</v>
+        <v>21.58710695337965</v>
       </c>
       <c r="O12">
-        <v>18.49398266053374</v>
+        <v>28.93517872789668</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.80295134541333</v>
+        <v>15.49502392951572</v>
       </c>
       <c r="C13">
-        <v>7.398878978845537</v>
+        <v>9.699176697779167</v>
       </c>
       <c r="D13">
-        <v>10.3744540353518</v>
+        <v>14.15861294602187</v>
       </c>
       <c r="E13">
-        <v>8.977524867025814</v>
+        <v>14.85337074617414</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.53012279596014</v>
+        <v>42.6483499436893</v>
       </c>
       <c r="H13">
-        <v>10.70412324248801</v>
+        <v>17.79652080058209</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.248131259582862</v>
+        <v>8.946238625437786</v>
       </c>
       <c r="K13">
-        <v>12.97439806027304</v>
+        <v>11.14686799104248</v>
       </c>
       <c r="L13">
-        <v>7.373002979917881</v>
+        <v>11.73315964058942</v>
       </c>
       <c r="M13">
-        <v>11.88601214665972</v>
+        <v>16.44692466251445</v>
       </c>
       <c r="N13">
-        <v>13.21062062961287</v>
+        <v>21.59034776214838</v>
       </c>
       <c r="O13">
-        <v>18.49090650973987</v>
+        <v>28.93836623874342</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.66635248914353</v>
+        <v>15.45846377115598</v>
       </c>
       <c r="C14">
-        <v>7.394787300025439</v>
+        <v>9.698344893817913</v>
       </c>
       <c r="D14">
-        <v>10.33141562179395</v>
+        <v>14.15589585634791</v>
       </c>
       <c r="E14">
-        <v>8.97343793614464</v>
+        <v>14.85729566682413</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.46041217669626</v>
+        <v>42.65759393652321</v>
       </c>
       <c r="H14">
-        <v>10.70922670288896</v>
+        <v>17.80348532883846</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.251991663008612</v>
+        <v>8.947537189777165</v>
       </c>
       <c r="K14">
-        <v>12.86747525072446</v>
+        <v>11.11954566138405</v>
       </c>
       <c r="L14">
-        <v>7.3552784853022</v>
+        <v>11.73355356669273</v>
       </c>
       <c r="M14">
-        <v>11.8267144590836</v>
+        <v>16.44027410773718</v>
       </c>
       <c r="N14">
-        <v>13.24987253017872</v>
+        <v>21.60095928604649</v>
       </c>
       <c r="O14">
-        <v>18.48124889574804</v>
+        <v>28.94887825119277</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.5822278201239</v>
+        <v>15.43607200802806</v>
       </c>
       <c r="C15">
-        <v>7.392294274831716</v>
+        <v>9.697839806398523</v>
       </c>
       <c r="D15">
-        <v>10.30508127547766</v>
+        <v>14.15427601996029</v>
       </c>
       <c r="E15">
-        <v>8.971014545965305</v>
+        <v>14.85973198239929</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.4182422124094</v>
+        <v>42.66343306910164</v>
       </c>
       <c r="H15">
-        <v>10.71248102204727</v>
+        <v>17.80779497402722</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.254363566549137</v>
+        <v>8.94833726464427</v>
       </c>
       <c r="K15">
-        <v>12.80157077913645</v>
+        <v>11.10280447476129</v>
       </c>
       <c r="L15">
-        <v>7.344457506864964</v>
+        <v>11.7338194568173</v>
       </c>
       <c r="M15">
-        <v>11.79033178848107</v>
+        <v>16.43623834053888</v>
       </c>
       <c r="N15">
-        <v>13.27395435148787</v>
+        <v>21.60749186085323</v>
       </c>
       <c r="O15">
-        <v>18.47561931005274</v>
+        <v>28.9554069455561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.09321203411694</v>
+        <v>15.30782357393054</v>
       </c>
       <c r="C16">
-        <v>7.378209424416994</v>
+        <v>9.695013366955312</v>
       </c>
       <c r="D16">
-        <v>10.15462951145067</v>
+        <v>14.14567682661405</v>
       </c>
       <c r="E16">
-        <v>8.958341356600544</v>
+        <v>14.87418728508112</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>30.18463474982544</v>
+        <v>42.69960542221236</v>
       </c>
       <c r="H16">
-        <v>10.7330631966373</v>
+        <v>17.83316140860839</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.268068970277693</v>
+        <v>8.952993814787627</v>
       </c>
       <c r="K16">
-        <v>12.41758403401034</v>
+        <v>11.00680791031259</v>
       </c>
       <c r="L16">
-        <v>7.283002908676122</v>
+        <v>11.73572089335933</v>
       </c>
       <c r="M16">
-        <v>11.58094811909635</v>
+        <v>16.41369550281816</v>
       </c>
       <c r="N16">
-        <v>13.41257290633567</v>
+        <v>21.64542958356038</v>
       </c>
       <c r="O16">
-        <v>18.44767153009721</v>
+        <v>28.99419620781066</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.78706454516227</v>
+        <v>15.2292456997589</v>
       </c>
       <c r="C17">
-        <v>7.369747347249375</v>
+        <v>9.693340472251451</v>
       </c>
       <c r="D17">
-        <v>10.06277774847132</v>
+        <v>14.14101343789969</v>
       </c>
       <c r="E17">
-        <v>8.951637781280427</v>
+        <v>14.88349617294019</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30.04843093510812</v>
+        <v>42.7242134532366</v>
       </c>
       <c r="H17">
-        <v>10.74737861349902</v>
+        <v>17.84932066204811</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.276578865017608</v>
+        <v>8.955914514259188</v>
       </c>
       <c r="K17">
-        <v>12.17637294457911</v>
+        <v>10.94789053695122</v>
       </c>
       <c r="L17">
-        <v>7.245806901222861</v>
+        <v>11.73722515469285</v>
       </c>
       <c r="M17">
-        <v>11.45175832650309</v>
+        <v>16.40039180107649</v>
       </c>
       <c r="N17">
-        <v>13.49818042016604</v>
+        <v>21.66915214622183</v>
       </c>
       <c r="O17">
-        <v>18.43429876832001</v>
+        <v>29.01921974096854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.60873064945795</v>
+        <v>15.18410036656297</v>
       </c>
       <c r="C18">
-        <v>7.364945242180698</v>
+        <v>9.692400833925452</v>
       </c>
       <c r="D18">
-        <v>10.01012507845691</v>
+        <v>14.13855686824264</v>
       </c>
       <c r="E18">
-        <v>8.948170689181953</v>
+        <v>14.88901264556686</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.97266977062785</v>
+        <v>42.7392551793268</v>
       </c>
       <c r="H18">
-        <v>10.75621911664477</v>
+        <v>17.8588348218132</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.281511534141584</v>
+        <v>8.957618014537113</v>
       </c>
       <c r="K18">
-        <v>12.03555465045187</v>
+        <v>10.91400366955105</v>
       </c>
       <c r="L18">
-        <v>7.224601362129459</v>
+        <v>11.73821479018867</v>
       </c>
       <c r="M18">
-        <v>11.37720215754016</v>
+        <v>16.39293458749025</v>
       </c>
       <c r="N18">
-        <v>13.54763681864102</v>
+        <v>21.68296209887228</v>
       </c>
       <c r="O18">
-        <v>18.42796314136793</v>
+        <v>29.03406365421273</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54796571802476</v>
+        <v>15.16882499461808</v>
       </c>
       <c r="C19">
-        <v>7.363330455297806</v>
+        <v>9.692086577244433</v>
       </c>
       <c r="D19">
-        <v>9.992329750716159</v>
+        <v>14.13776395163133</v>
       </c>
       <c r="E19">
-        <v>8.947063066375884</v>
+        <v>14.89090831039273</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.9474582437004</v>
+        <v>42.74450047653266</v>
       </c>
       <c r="H19">
-        <v>10.75931524345295</v>
+        <v>17.8620939111895</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.283188224102737</v>
+        <v>8.958198847079464</v>
       </c>
       <c r="K19">
-        <v>11.98751836188431</v>
+        <v>10.90253131810689</v>
       </c>
       <c r="L19">
-        <v>7.217454234483232</v>
+        <v>11.73857126040046</v>
       </c>
       <c r="M19">
-        <v>11.35191803624933</v>
+        <v>16.39044329306886</v>
       </c>
       <c r="N19">
-        <v>13.56441994961107</v>
+        <v>21.68766634658911</v>
       </c>
       <c r="O19">
-        <v>18.42604803587147</v>
+        <v>29.03916700517001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.81988728552842</v>
+        <v>15.23760554001384</v>
       </c>
       <c r="C20">
-        <v>7.370641404490208</v>
+        <v>9.693516222277431</v>
       </c>
       <c r="D20">
-        <v>10.07253742694871</v>
+        <v>14.14148652335867</v>
       </c>
       <c r="E20">
-        <v>8.952311054731158</v>
+        <v>14.88248843784204</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>30.0626623346545</v>
+        <v>42.72150198460131</v>
       </c>
       <c r="H20">
-        <v>10.74579161408149</v>
+        <v>17.84757773745918</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.275669050017576</v>
+        <v>8.955601160357336</v>
       </c>
       <c r="K20">
-        <v>12.20226546043692</v>
+        <v>10.95416254487148</v>
       </c>
       <c r="L20">
-        <v>7.249747031467225</v>
+        <v>11.73705215244852</v>
       </c>
       <c r="M20">
-        <v>11.46553715005234</v>
+        <v>16.40178788453406</v>
       </c>
       <c r="N20">
-        <v>13.4890450486492</v>
+        <v>21.6666097326322</v>
       </c>
       <c r="O20">
-        <v>18.4355812949711</v>
+        <v>29.01650926012584</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.70656953901904</v>
+        <v>15.46920195681426</v>
       </c>
       <c r="C21">
-        <v>7.395986361454254</v>
+        <v>9.698588295170666</v>
       </c>
       <c r="D21">
-        <v>10.34405130244354</v>
+        <v>14.15668467098563</v>
       </c>
       <c r="E21">
-        <v>8.974621673033843</v>
+        <v>14.85613611543617</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.48077730374911</v>
+        <v>42.65484187942295</v>
       </c>
       <c r="H21">
-        <v>10.70770087377413</v>
+        <v>17.8014305777643</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.250856251506993</v>
+        <v>8.94715479769223</v>
       </c>
       <c r="K21">
-        <v>12.89896672554745</v>
+        <v>11.12757208980285</v>
       </c>
       <c r="L21">
-        <v>7.360477159217379</v>
+        <v>11.73343273630965</v>
       </c>
       <c r="M21">
-        <v>11.84414447679983</v>
+        <v>16.44221964982927</v>
       </c>
       <c r="N21">
-        <v>13.23833523547336</v>
+        <v>21.59783560947479</v>
       </c>
       <c r="O21">
-        <v>18.48402580469164</v>
+        <v>28.94577190717675</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.26578764558382</v>
+        <v>15.62070926920771</v>
       </c>
       <c r="C22">
-        <v>7.413142124477257</v>
+        <v>9.702101229334028</v>
       </c>
       <c r="D22">
-        <v>10.5227892274442</v>
+        <v>14.16860964833363</v>
       </c>
       <c r="E22">
-        <v>8.992769006936893</v>
+        <v>14.84035448435927</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.77766827681849</v>
+        <v>42.61919272488211</v>
       </c>
       <c r="H22">
-        <v>10.68851080775492</v>
+        <v>17.77322561924265</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.234967490723115</v>
+        <v>8.941843618146157</v>
       </c>
       <c r="K22">
-        <v>13.33588538943751</v>
+        <v>11.24068885690441</v>
       </c>
       <c r="L22">
-        <v>7.434456208155145</v>
+        <v>11.73216901338149</v>
       </c>
       <c r="M22">
-        <v>12.08890879357319</v>
+        <v>16.47034426369374</v>
       </c>
       <c r="N22">
-        <v>13.07624446585443</v>
+        <v>21.5543527244575</v>
       </c>
       <c r="O22">
-        <v>18.52840547854725</v>
+        <v>28.90355920679263</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.96918864009633</v>
+        <v>15.53984823909063</v>
       </c>
       <c r="C23">
-        <v>7.403931045180453</v>
+        <v>9.700208331132236</v>
       </c>
       <c r="D23">
-        <v>10.42728942984257</v>
+        <v>14.16206368370879</v>
       </c>
       <c r="E23">
-        <v>8.982752049763111</v>
+        <v>14.84864575349853</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.61702007172415</v>
+        <v>42.63749450129433</v>
       </c>
       <c r="H23">
-        <v>10.69821595160598</v>
+        <v>17.78810037553665</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.243418147748806</v>
+        <v>8.944659222004262</v>
       </c>
       <c r="K23">
-        <v>13.10437277328411</v>
+        <v>11.1803468062317</v>
       </c>
       <c r="L23">
-        <v>7.394828169618707</v>
+        <v>11.73274298342493</v>
       </c>
       <c r="M23">
-        <v>11.95853903867257</v>
+        <v>16.45517975272952</v>
       </c>
       <c r="N23">
-        <v>13.16260268329061</v>
+        <v>21.57742667609336</v>
       </c>
       <c r="O23">
-        <v>18.50352436183624</v>
+        <v>28.92572117431443</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.80505536490856</v>
+        <v>15.2338259589487</v>
       </c>
       <c r="C24">
-        <v>7.370237005558851</v>
+        <v>9.693436696726913</v>
       </c>
       <c r="D24">
-        <v>10.06812459284554</v>
+        <v>14.14127194202924</v>
       </c>
       <c r="E24">
-        <v>8.952005463921591</v>
+        <v>14.88294352191868</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30.05622040178184</v>
+        <v>42.72272505420756</v>
       </c>
       <c r="H24">
-        <v>10.74650719862753</v>
+        <v>17.84836501592325</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.276080251995523</v>
+        <v>8.955742751793556</v>
       </c>
       <c r="K24">
-        <v>12.19056612951905</v>
+        <v>10.95132701268574</v>
       </c>
       <c r="L24">
-        <v>7.247965140453082</v>
+        <v>11.7371299779115</v>
       </c>
       <c r="M24">
-        <v>11.45930862090522</v>
+        <v>16.40115611907365</v>
       </c>
       <c r="N24">
-        <v>13.49317440226111</v>
+        <v>21.6677586234025</v>
       </c>
       <c r="O24">
-        <v>18.43499725891185</v>
+        <v>29.01773324329284</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46381239285973</v>
+        <v>14.90585012012126</v>
       </c>
       <c r="C25">
-        <v>7.336373877621187</v>
+        <v>9.686996797060297</v>
       </c>
       <c r="D25">
-        <v>9.687711055138202</v>
+        <v>14.12748112220537</v>
       </c>
       <c r="E25">
-        <v>8.933634532716725</v>
+        <v>14.9261442780822</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.54943679794067</v>
+        <v>42.84859232124218</v>
       </c>
       <c r="H25">
-        <v>10.82162854660534</v>
+        <v>17.92177441568259</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.312770386894268</v>
+        <v>8.968600748621284</v>
       </c>
       <c r="K25">
-        <v>11.12533145167972</v>
+        <v>10.70446212390783</v>
       </c>
       <c r="L25">
-        <v>7.096800064047557</v>
+        <v>11.7466221982816</v>
       </c>
       <c r="M25">
-        <v>10.91160185312689</v>
+        <v>16.35034495385107</v>
       </c>
       <c r="N25">
-        <v>13.85814460414856</v>
+        <v>21.77152320746545</v>
       </c>
       <c r="O25">
-        <v>18.41254121085739</v>
+        <v>29.13422567145</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.66779673140667</v>
+        <v>13.40513003856047</v>
       </c>
       <c r="C2">
-        <v>9.683012303539137</v>
+        <v>7.313510023731924</v>
       </c>
       <c r="D2">
-        <v>14.12482764326565</v>
+        <v>9.415293073360488</v>
       </c>
       <c r="E2">
-        <v>14.96331208326708</v>
+        <v>8.932244724929919</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>42.97036403438559</v>
+        <v>29.25634690800563</v>
       </c>
       <c r="H2">
-        <v>17.98307346718465</v>
+        <v>10.89522113188194</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.978851923871614</v>
+        <v>5.341099337525439</v>
       </c>
       <c r="K2">
-        <v>10.52403804654302</v>
+        <v>10.27216353218147</v>
       </c>
       <c r="L2">
-        <v>11.75773452428673</v>
+        <v>6.992063216929443</v>
       </c>
       <c r="M2">
-        <v>16.3195047908041</v>
+        <v>10.5031957852883</v>
       </c>
       <c r="N2">
-        <v>21.85342209167314</v>
+        <v>14.1350020425429</v>
       </c>
       <c r="O2">
-        <v>29.23482447139614</v>
+        <v>18.43676504470298</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.50943044968309</v>
+        <v>12.64524896371932</v>
       </c>
       <c r="C3">
-        <v>9.680791312146726</v>
+        <v>7.299276952496399</v>
       </c>
       <c r="D3">
-        <v>14.1277388665587</v>
+        <v>9.236338585264397</v>
       </c>
       <c r="E3">
-        <v>14.99185532894032</v>
+        <v>8.938574481843736</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.07098362960609</v>
+        <v>29.10512368208614</v>
       </c>
       <c r="H3">
-        <v>18.02914779633803</v>
+        <v>10.9557778892179</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.986292062133568</v>
+        <v>5.36114635533941</v>
       </c>
       <c r="K3">
-        <v>10.40321605761696</v>
+        <v>9.650999769202762</v>
       </c>
       <c r="L3">
-        <v>11.76785129926367</v>
+        <v>6.92533243912309</v>
       </c>
       <c r="M3">
-        <v>16.30277518744363</v>
+        <v>10.22483621853612</v>
       </c>
       <c r="N3">
-        <v>21.91238315001919</v>
+        <v>14.32812794708341</v>
       </c>
       <c r="O3">
-        <v>29.31224649744936</v>
+        <v>18.47684941755607</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.41392994885017</v>
+        <v>12.15870705997959</v>
       </c>
       <c r="C4">
-        <v>9.679666462962013</v>
+        <v>7.291151676687919</v>
       </c>
       <c r="D4">
-        <v>14.13185802867452</v>
+        <v>9.129549455141008</v>
       </c>
       <c r="E4">
-        <v>15.01103918380295</v>
+        <v>8.945947483163062</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.14166748079858</v>
+        <v>29.03471573432504</v>
       </c>
       <c r="H4">
-        <v>18.05967607799375</v>
+        <v>10.99800241601907</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.991104679527353</v>
+        <v>5.373882667289846</v>
       </c>
       <c r="K4">
-        <v>10.32995529304104</v>
+        <v>9.248480935434413</v>
       </c>
       <c r="L4">
-        <v>11.7753429235318</v>
+        <v>6.886502537126191</v>
       </c>
       <c r="M4">
-        <v>16.29458286514575</v>
+        <v>10.05374435254736</v>
       </c>
       <c r="N4">
-        <v>21.95029998693401</v>
+        <v>14.44955096508321</v>
       </c>
       <c r="O4">
-        <v>29.36434284883751</v>
+        <v>18.51255605077502</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.37549084897221</v>
+        <v>11.95559571408914</v>
       </c>
       <c r="C5">
-        <v>9.679268527821385</v>
+        <v>7.287993822331268</v>
       </c>
       <c r="D5">
-        <v>14.13412418352994</v>
+        <v>9.086853069912291</v>
       </c>
       <c r="E5">
-        <v>15.01927426599301</v>
+        <v>8.949813881564324</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.17270704389361</v>
+        <v>29.01151890516743</v>
       </c>
       <c r="H5">
-        <v>18.07267994382182</v>
+        <v>11.01644481209545</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.993127476250594</v>
+        <v>5.379181527847117</v>
       </c>
       <c r="K5">
-        <v>10.3003648499886</v>
+        <v>9.079162049675116</v>
       </c>
       <c r="L5">
-        <v>11.77871833338595</v>
+        <v>6.871224467009124</v>
       </c>
       <c r="M5">
-        <v>16.29177072522101</v>
+        <v>9.984074588147383</v>
       </c>
       <c r="N5">
-        <v>21.9661837677646</v>
+        <v>14.49976489299798</v>
       </c>
       <c r="O5">
-        <v>29.38671866934603</v>
+        <v>18.52981139515285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.36913813500818</v>
+        <v>11.92158285970525</v>
       </c>
       <c r="C6">
-        <v>9.679206113377894</v>
+        <v>7.287478688189926</v>
       </c>
       <c r="D6">
-        <v>14.13453599651881</v>
+        <v>9.079814213588049</v>
       </c>
       <c r="E6">
-        <v>15.0206669270979</v>
+        <v>8.950507510226927</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.17799604056832</v>
+        <v>29.00799444400559</v>
       </c>
       <c r="H6">
-        <v>18.07487326403544</v>
+        <v>11.01958085927782</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.993467086692174</v>
+        <v>5.380068001295727</v>
       </c>
       <c r="K6">
-        <v>10.29546823023394</v>
+        <v>9.05072818711249</v>
       </c>
       <c r="L6">
-        <v>11.7792983155512</v>
+        <v>6.868720669854824</v>
       </c>
       <c r="M6">
-        <v>16.29133565134137</v>
+        <v>9.972511982882521</v>
       </c>
       <c r="N6">
-        <v>21.96884740740842</v>
+        <v>14.50814767124156</v>
       </c>
       <c r="O6">
-        <v>29.39050337317294</v>
+        <v>18.53283750685826</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.41340955578862</v>
+        <v>12.15598716549855</v>
       </c>
       <c r="C7">
-        <v>9.679660850993743</v>
+        <v>7.291108469633271</v>
       </c>
       <c r="D7">
-        <v>14.13188621031135</v>
+        <v>9.128970255241631</v>
       </c>
       <c r="E7">
-        <v>15.01114855382151</v>
+        <v>8.945996156912999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.14207704526698</v>
+        <v>29.03438084807744</v>
       </c>
       <c r="H7">
-        <v>18.0598491711066</v>
+        <v>10.99824617576341</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.991131709957568</v>
+        <v>5.373953687783498</v>
       </c>
       <c r="K7">
-        <v>10.32955511615294</v>
+        <v>9.246218820384168</v>
       </c>
       <c r="L7">
-        <v>11.77538713878272</v>
+        <v>6.886294275363439</v>
       </c>
       <c r="M7">
-        <v>16.29454280445518</v>
+        <v>10.05280442275928</v>
       </c>
       <c r="N7">
-        <v>21.9505124489022</v>
+        <v>14.45022517596385</v>
       </c>
       <c r="O7">
-        <v>29.36463997667582</v>
+        <v>18.51277792354114</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.61285655387475</v>
+        <v>13.14736487481489</v>
       </c>
       <c r="C8">
-        <v>9.682197165925615</v>
+        <v>7.308474361582391</v>
       </c>
       <c r="D8">
-        <v>14.12534830540279</v>
+        <v>9.352975222173646</v>
       </c>
       <c r="E8">
-        <v>14.97280996581637</v>
+        <v>8.933694684780285</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.00320790206224</v>
+        <v>29.19946048177072</v>
       </c>
       <c r="H8">
-        <v>17.99849558493802</v>
+        <v>10.91503466083745</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.98136667533204</v>
+        <v>5.347923612777742</v>
       </c>
       <c r="K8">
-        <v>10.4822057470001</v>
+        <v>10.06238000119892</v>
       </c>
       <c r="L8">
-        <v>11.76095756343755</v>
+        <v>6.968613847480755</v>
       </c>
       <c r="M8">
-        <v>16.31330684556769</v>
+        <v>10.40731079537222</v>
       </c>
       <c r="N8">
-        <v>21.8733967650036</v>
+        <v>14.20101299677526</v>
       </c>
       <c r="O8">
-        <v>29.26057325087055</v>
+        <v>18.44823191817794</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.01590502864239</v>
+        <v>14.92686482303375</v>
       </c>
       <c r="C9">
-        <v>9.689049398043098</v>
+        <v>7.347455196382549</v>
       </c>
       <c r="D9">
-        <v>14.13096597176584</v>
+        <v>9.81477571926213</v>
       </c>
       <c r="E9">
-        <v>14.91076102295184</v>
+        <v>8.93789801872248</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>42.80166733947677</v>
+        <v>29.70740118745683</v>
       </c>
       <c r="H9">
-        <v>17.89592176331612</v>
+        <v>10.79338474968046</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.964148249057619</v>
+        <v>5.300210993615694</v>
       </c>
       <c r="K9">
-        <v>10.78749186121161</v>
+        <v>11.49483302953651</v>
       </c>
       <c r="L9">
-        <v>11.7427861331122</v>
+        <v>7.146722137510252</v>
       </c>
       <c r="M9">
-        <v>16.36644990182662</v>
+        <v>11.09709553394016</v>
       </c>
       <c r="N9">
-        <v>21.73571968405714</v>
+        <v>13.73399935647157</v>
       </c>
       <c r="O9">
-        <v>29.09268162676157</v>
+        <v>18.41353991944368</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.31679566280859</v>
+        <v>16.12784011499771</v>
       </c>
       <c r="C10">
-        <v>9.695207303832913</v>
+        <v>7.379183861022208</v>
       </c>
       <c r="D10">
-        <v>14.14623947589328</v>
+        <v>10.16513351515449</v>
       </c>
       <c r="E10">
-        <v>14.8731470488459</v>
+        <v>8.959159301549052</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.69691782277057</v>
+        <v>30.20052846709483</v>
       </c>
       <c r="H10">
-        <v>17.83134729911799</v>
+        <v>10.7315129201262</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.952663735670008</v>
+        <v>5.267103046203355</v>
       </c>
       <c r="K10">
-        <v>11.0135301357407</v>
+        <v>12.44482635771018</v>
       </c>
       <c r="L10">
-        <v>11.73556608594311</v>
+        <v>7.28727255498276</v>
       </c>
       <c r="M10">
-        <v>16.41523982077928</v>
+        <v>11.59565411282582</v>
       </c>
       <c r="N10">
-        <v>21.64274505530965</v>
+        <v>13.40283335853984</v>
       </c>
       <c r="O10">
-        <v>28.99140197263325</v>
+        <v>18.44938339494766</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.4541816115782</v>
+        <v>16.65029218161328</v>
       </c>
       <c r="C11">
-        <v>9.698248043417074</v>
+        <v>7.394309772766963</v>
       </c>
       <c r="D11">
-        <v>14.15558345530751</v>
+        <v>10.32637800643758</v>
       </c>
       <c r="E11">
-        <v>14.85775965538407</v>
+        <v>8.972969775789164</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>42.65870006441166</v>
+        <v>30.45231662012375</v>
       </c>
       <c r="H11">
-        <v>17.80430687443631</v>
+        <v>10.70984144627593</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.947689911683828</v>
+        <v>5.252444809893944</v>
       </c>
       <c r="K11">
-        <v>11.11634453853105</v>
+        <v>12.85489669731705</v>
       </c>
       <c r="L11">
-        <v>11.73360295338213</v>
+        <v>7.353207054137324</v>
       </c>
       <c r="M11">
-        <v>16.43950009498653</v>
+        <v>11.8197605657778</v>
       </c>
       <c r="N11">
-        <v>21.60220657346471</v>
+        <v>13.25447538820022</v>
       </c>
       <c r="O11">
-        <v>28.95012141214289</v>
+        <v>18.48015544223439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.50623515102351</v>
+        <v>16.84465583214886</v>
       </c>
       <c r="C12">
-        <v>9.699433516425589</v>
+        <v>7.400138925864253</v>
       </c>
       <c r="D12">
-        <v>14.15946381966968</v>
+        <v>10.38766191689413</v>
       </c>
       <c r="E12">
-        <v>14.85218007288597</v>
+        <v>8.97881008265613</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>42.64558602998106</v>
+        <v>30.55171050261857</v>
       </c>
       <c r="H12">
-        <v>17.79440266379422</v>
+        <v>10.70260987442323</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.945842302615088</v>
+        <v>5.246950428364179</v>
       </c>
       <c r="K12">
-        <v>11.15524352909837</v>
+        <v>13.00702028389654</v>
       </c>
       <c r="L12">
-        <v>11.73304865881345</v>
+        <v>7.378452119553089</v>
       </c>
       <c r="M12">
-        <v>16.44897903131304</v>
+        <v>11.90416999380872</v>
       </c>
       <c r="N12">
-        <v>21.58710695337965</v>
+        <v>13.19859999806851</v>
       </c>
       <c r="O12">
-        <v>28.93517872789668</v>
+        <v>18.49398266053381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.49502392951572</v>
+        <v>16.80295134541329</v>
       </c>
       <c r="C13">
-        <v>9.699176697779167</v>
+        <v>7.398878978845272</v>
       </c>
       <c r="D13">
-        <v>14.15861294602187</v>
+        <v>10.37445403535171</v>
       </c>
       <c r="E13">
-        <v>14.85337074617414</v>
+        <v>8.977524867025814</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>42.6483499436893</v>
+        <v>30.53012279595976</v>
       </c>
       <c r="H13">
-        <v>17.79652080058209</v>
+        <v>10.7041232424879</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.946238625437786</v>
+        <v>5.24813125958286</v>
       </c>
       <c r="K13">
-        <v>11.14686799104248</v>
+        <v>12.97439806027306</v>
       </c>
       <c r="L13">
-        <v>11.73315964058942</v>
+        <v>7.37300297991791</v>
       </c>
       <c r="M13">
-        <v>16.44692466251445</v>
+        <v>11.88601214665969</v>
       </c>
       <c r="N13">
-        <v>21.59034776214838</v>
+        <v>13.21062062961274</v>
       </c>
       <c r="O13">
-        <v>28.93836623874342</v>
+        <v>18.49090650973968</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.45846377115598</v>
+        <v>16.66635248914355</v>
       </c>
       <c r="C14">
-        <v>9.698344893817913</v>
+        <v>7.394787300025815</v>
       </c>
       <c r="D14">
-        <v>14.15589585634791</v>
+        <v>10.33141562179394</v>
       </c>
       <c r="E14">
-        <v>14.85729566682413</v>
+        <v>8.973437936144638</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>42.65759393652321</v>
+        <v>30.46041217669652</v>
       </c>
       <c r="H14">
-        <v>17.80348532883846</v>
+        <v>10.70922670288892</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.947537189777165</v>
+        <v>5.251991663008613</v>
       </c>
       <c r="K14">
-        <v>11.11954566138405</v>
+        <v>12.86747525072446</v>
       </c>
       <c r="L14">
-        <v>11.73355356669273</v>
+        <v>7.355278485302112</v>
       </c>
       <c r="M14">
-        <v>16.44027410773718</v>
+        <v>11.82671445908359</v>
       </c>
       <c r="N14">
-        <v>21.60095928604649</v>
+        <v>13.24987253017876</v>
       </c>
       <c r="O14">
-        <v>28.94887825119277</v>
+        <v>18.48124889574811</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.43607200802806</v>
+        <v>16.58222782012389</v>
       </c>
       <c r="C15">
-        <v>9.697839806398523</v>
+        <v>7.392294274831595</v>
       </c>
       <c r="D15">
-        <v>14.15427601996029</v>
+        <v>10.3050812754776</v>
       </c>
       <c r="E15">
-        <v>14.85973198239929</v>
+        <v>8.971014545965254</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>42.66343306910164</v>
+        <v>30.41824221240945</v>
       </c>
       <c r="H15">
-        <v>17.80779497402722</v>
+        <v>10.71248102204728</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.94833726464427</v>
+        <v>5.254363566549105</v>
       </c>
       <c r="K15">
-        <v>11.10280447476129</v>
+        <v>12.80157077913641</v>
       </c>
       <c r="L15">
-        <v>11.7338194568173</v>
+        <v>7.344457506864995</v>
       </c>
       <c r="M15">
-        <v>16.43623834053888</v>
+        <v>11.79033178848107</v>
       </c>
       <c r="N15">
-        <v>21.60749186085323</v>
+        <v>13.27395435148783</v>
       </c>
       <c r="O15">
-        <v>28.9554069455561</v>
+        <v>18.47561931005278</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.30782357393054</v>
+        <v>16.09321203411691</v>
       </c>
       <c r="C16">
-        <v>9.695013366955312</v>
+        <v>7.378209424416866</v>
       </c>
       <c r="D16">
-        <v>14.14567682661405</v>
+        <v>10.15462951145066</v>
       </c>
       <c r="E16">
-        <v>14.87418728508112</v>
+        <v>8.958341356600446</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.69960542221236</v>
+        <v>30.18463474982547</v>
       </c>
       <c r="H16">
-        <v>17.83316140860839</v>
+        <v>10.7330631966373</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.952993814787627</v>
+        <v>5.268068970277524</v>
       </c>
       <c r="K16">
-        <v>11.00680791031259</v>
+        <v>12.41758403401034</v>
       </c>
       <c r="L16">
-        <v>11.73572089335933</v>
+        <v>7.283002908676077</v>
       </c>
       <c r="M16">
-        <v>16.41369550281816</v>
+        <v>11.58094811909632</v>
       </c>
       <c r="N16">
-        <v>21.64542958356038</v>
+        <v>13.41257290633573</v>
       </c>
       <c r="O16">
-        <v>28.99419620781066</v>
+        <v>18.44767153009719</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.2292456997589</v>
+        <v>15.78706454516226</v>
       </c>
       <c r="C17">
-        <v>9.693340472251451</v>
+        <v>7.369747347249238</v>
       </c>
       <c r="D17">
-        <v>14.14101343789969</v>
+        <v>10.06277774847132</v>
       </c>
       <c r="E17">
-        <v>14.88349617294019</v>
+        <v>8.95163778128037</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.7242134532366</v>
+        <v>30.04843093510799</v>
       </c>
       <c r="H17">
-        <v>17.84932066204811</v>
+        <v>10.7473786134989</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.955914514259188</v>
+        <v>5.276578865017641</v>
       </c>
       <c r="K17">
-        <v>10.94789053695122</v>
+        <v>12.17637294457919</v>
       </c>
       <c r="L17">
-        <v>11.73722515469285</v>
+        <v>7.245806901222856</v>
       </c>
       <c r="M17">
-        <v>16.40039180107649</v>
+        <v>11.45175832650303</v>
       </c>
       <c r="N17">
-        <v>21.66915214622183</v>
+        <v>13.49818042016601</v>
       </c>
       <c r="O17">
-        <v>29.01921974096854</v>
+        <v>18.43429876831984</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.18410036656297</v>
+        <v>15.60873064945797</v>
       </c>
       <c r="C18">
-        <v>9.692400833925452</v>
+        <v>7.36494524218082</v>
       </c>
       <c r="D18">
-        <v>14.13855686824264</v>
+        <v>10.01012507845689</v>
       </c>
       <c r="E18">
-        <v>14.88901264556686</v>
+        <v>8.948170689182062</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.7392551793268</v>
+        <v>29.97266977062796</v>
       </c>
       <c r="H18">
-        <v>17.8588348218132</v>
+        <v>10.75621911664477</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.957618014537113</v>
+        <v>5.281511534141718</v>
       </c>
       <c r="K18">
-        <v>10.91400366955105</v>
+        <v>12.03555465045184</v>
       </c>
       <c r="L18">
-        <v>11.73821479018867</v>
+        <v>7.224601362129501</v>
       </c>
       <c r="M18">
-        <v>16.39293458749025</v>
+        <v>11.37720215754022</v>
       </c>
       <c r="N18">
-        <v>21.68296209887228</v>
+        <v>13.54763681864102</v>
       </c>
       <c r="O18">
-        <v>29.03406365421273</v>
+        <v>18.427963141368</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.16882499461808</v>
+        <v>15.54796571802476</v>
       </c>
       <c r="C19">
-        <v>9.692086577244433</v>
+        <v>7.36333045529768</v>
       </c>
       <c r="D19">
-        <v>14.13776395163133</v>
+        <v>9.992329750716191</v>
       </c>
       <c r="E19">
-        <v>14.89090831039273</v>
+        <v>8.947063066375934</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.74450047653266</v>
+        <v>29.94745824370031</v>
       </c>
       <c r="H19">
-        <v>17.8620939111895</v>
+        <v>10.75931524345295</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.958198847079464</v>
+        <v>5.283188224102736</v>
       </c>
       <c r="K19">
-        <v>10.90253131810689</v>
+        <v>11.98751836188438</v>
       </c>
       <c r="L19">
-        <v>11.73857126040046</v>
+        <v>7.217454234483283</v>
       </c>
       <c r="M19">
-        <v>16.39044329306886</v>
+        <v>11.35191803624932</v>
       </c>
       <c r="N19">
-        <v>21.68766634658911</v>
+        <v>13.56441994961111</v>
       </c>
       <c r="O19">
-        <v>29.03916700517001</v>
+        <v>18.42604803587145</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.23760554001384</v>
+        <v>15.81988728552841</v>
       </c>
       <c r="C20">
-        <v>9.693516222277431</v>
+        <v>7.370641404489815</v>
       </c>
       <c r="D20">
-        <v>14.14148652335867</v>
+        <v>10.07253742694861</v>
       </c>
       <c r="E20">
-        <v>14.88248843784204</v>
+        <v>8.952311054731108</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.72150198460131</v>
+        <v>30.06266233465483</v>
       </c>
       <c r="H20">
-        <v>17.84757773745918</v>
+        <v>10.74579161408149</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.955601160357336</v>
+        <v>5.275669050017576</v>
       </c>
       <c r="K20">
-        <v>10.95416254487148</v>
+        <v>12.20226546043687</v>
       </c>
       <c r="L20">
-        <v>11.73705215244852</v>
+        <v>7.249747031467263</v>
       </c>
       <c r="M20">
-        <v>16.40178788453406</v>
+        <v>11.46553715005235</v>
       </c>
       <c r="N20">
-        <v>21.6666097326322</v>
+        <v>13.48904504864927</v>
       </c>
       <c r="O20">
-        <v>29.01650926012584</v>
+        <v>18.43558129497124</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.46920195681426</v>
+        <v>16.70656953901902</v>
       </c>
       <c r="C21">
-        <v>9.698588295170666</v>
+        <v>7.395986361453994</v>
       </c>
       <c r="D21">
-        <v>14.15668467098563</v>
+        <v>10.34405130244354</v>
       </c>
       <c r="E21">
-        <v>14.85613611543617</v>
+        <v>8.974621673033745</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>42.65484187942295</v>
+        <v>30.48077730374917</v>
       </c>
       <c r="H21">
-        <v>17.8014305777643</v>
+        <v>10.70770087377408</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.94715479769223</v>
+        <v>5.250856251506928</v>
       </c>
       <c r="K21">
-        <v>11.12757208980285</v>
+        <v>12.89896672554747</v>
       </c>
       <c r="L21">
-        <v>11.73343273630965</v>
+        <v>7.360477159217334</v>
       </c>
       <c r="M21">
-        <v>16.44221964982927</v>
+        <v>11.84414447679981</v>
       </c>
       <c r="N21">
-        <v>21.59783560947479</v>
+        <v>13.23833523547332</v>
       </c>
       <c r="O21">
-        <v>28.94577190717675</v>
+        <v>18.48402580469162</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.62070926920771</v>
+        <v>17.26578764558383</v>
       </c>
       <c r="C22">
-        <v>9.702101229334028</v>
+        <v>7.41314212447739</v>
       </c>
       <c r="D22">
-        <v>14.16860964833363</v>
+        <v>10.52278922744422</v>
       </c>
       <c r="E22">
-        <v>14.84035448435927</v>
+        <v>8.992769006936948</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>42.61919272488211</v>
+        <v>30.77766827681873</v>
       </c>
       <c r="H22">
-        <v>17.77322561924265</v>
+        <v>10.68851080775493</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.941843618146157</v>
+        <v>5.234967490723012</v>
       </c>
       <c r="K22">
-        <v>11.24068885690441</v>
+        <v>13.33588538943748</v>
       </c>
       <c r="L22">
-        <v>11.73216901338149</v>
+        <v>7.434456208155145</v>
       </c>
       <c r="M22">
-        <v>16.47034426369374</v>
+        <v>12.08890879357322</v>
       </c>
       <c r="N22">
-        <v>21.5543527244575</v>
+        <v>13.07624446585449</v>
       </c>
       <c r="O22">
-        <v>28.90355920679263</v>
+        <v>18.52840547854733</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.53984823909063</v>
+        <v>16.96918864009632</v>
       </c>
       <c r="C23">
-        <v>9.700208331132236</v>
+        <v>7.403931045180336</v>
       </c>
       <c r="D23">
-        <v>14.16206368370879</v>
+        <v>10.42728942984253</v>
       </c>
       <c r="E23">
-        <v>14.84864575349853</v>
+        <v>8.982752049763064</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>42.63749450129433</v>
+        <v>30.61702007172438</v>
       </c>
       <c r="H23">
-        <v>17.78810037553665</v>
+        <v>10.69821595160598</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.944659222004262</v>
+        <v>5.243418147748772</v>
       </c>
       <c r="K23">
-        <v>11.1803468062317</v>
+        <v>13.1043727732841</v>
       </c>
       <c r="L23">
-        <v>11.73274298342493</v>
+        <v>7.39482816961869</v>
       </c>
       <c r="M23">
-        <v>16.45517975272952</v>
+        <v>11.95853903867257</v>
       </c>
       <c r="N23">
-        <v>21.57742667609336</v>
+        <v>13.16260268329068</v>
       </c>
       <c r="O23">
-        <v>28.92572117431443</v>
+        <v>18.50352436183634</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.2338259589487</v>
+        <v>15.80505536490856</v>
       </c>
       <c r="C24">
-        <v>9.693436696726913</v>
+        <v>7.370237005558851</v>
       </c>
       <c r="D24">
-        <v>14.14127194202924</v>
+        <v>10.06812459284561</v>
       </c>
       <c r="E24">
-        <v>14.88294352191868</v>
+        <v>8.952005463921591</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.72272505420756</v>
+        <v>30.05622040178182</v>
       </c>
       <c r="H24">
-        <v>17.84836501592325</v>
+        <v>10.74650719862754</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.955742751793556</v>
+        <v>5.276080251995457</v>
       </c>
       <c r="K24">
-        <v>10.95132701268574</v>
+        <v>12.19056612951906</v>
       </c>
       <c r="L24">
-        <v>11.7371299779115</v>
+        <v>7.247965140453082</v>
       </c>
       <c r="M24">
-        <v>16.40115611907365</v>
+        <v>11.45930862090522</v>
       </c>
       <c r="N24">
-        <v>21.6677586234025</v>
+        <v>13.49317440226111</v>
       </c>
       <c r="O24">
-        <v>29.01773324329284</v>
+        <v>18.43499725891185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.90585012012126</v>
+        <v>14.46381239285977</v>
       </c>
       <c r="C25">
-        <v>9.686996797060297</v>
+        <v>7.336373877620931</v>
       </c>
       <c r="D25">
-        <v>14.12748112220537</v>
+        <v>9.687711055138108</v>
       </c>
       <c r="E25">
-        <v>14.9261442780822</v>
+        <v>8.933634532716662</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>42.84859232124218</v>
+        <v>29.5494367979411</v>
       </c>
       <c r="H25">
-        <v>17.92177441568259</v>
+        <v>10.82162854660546</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.968600748621284</v>
+        <v>5.312770386894304</v>
       </c>
       <c r="K25">
-        <v>10.70446212390783</v>
+        <v>11.12533145167966</v>
       </c>
       <c r="L25">
-        <v>11.7466221982816</v>
+        <v>7.096800064047628</v>
       </c>
       <c r="M25">
-        <v>16.35034495385107</v>
+        <v>10.91160185312694</v>
       </c>
       <c r="N25">
-        <v>21.77152320746545</v>
+        <v>13.85814460414863</v>
       </c>
       <c r="O25">
-        <v>29.13422567145</v>
+        <v>18.41254121085764</v>
       </c>
     </row>
   </sheetData>
